--- a/project_diary.xlsx
+++ b/project_diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4e6e8a058fd5eea/Documents/GitHub/jow102_mmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DB6427-52AF-437D-A025-6E0DB3E0FC9D}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2977E2FD-5622-4F75-AAF7-2CEDBC2A6819}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,42 @@
   </si>
   <si>
     <t>Fixed issues I was having converting ros image topic to OpenCV image. Can now successfully view the live image from Turtlebot3 aswell as begin processing it. I also began watching through a number of video tutorial projects in OpenCV on youtube to learn how to implement the image processing techniques I will require for the project.</t>
+  </si>
+  <si>
+    <t>04.03.22</t>
+  </si>
+  <si>
+    <t>03.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started work on chosen line detection method, warping image (warp perspective) on left and right side of robot to get a better view of each of the lines on the road. </t>
+  </si>
+  <si>
+    <t>Discovered fatal flaw with the method I was hoping to use for detecting and tracking the lines on the road. It completely fails when approaching any sort of corner (turns in the road/bus lane/parking spot). Abandoned this method and started researching other possible methods. Decided to begin work with a new method, implemented a colour mask and canny edge detector. Spent time tuning the variables on each of these so that the edge detector will only detect white lines.</t>
+  </si>
+  <si>
+    <t>https://docs.opencv.org/3.4/da/d5c/tutorial_canny_detector.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KEYzUP7-kkU</t>
+  </si>
+  <si>
+    <t>https://docs.opencv.org/3.4/d5/df9/samples_2cpp_2tutorial_code_2ImgTrans_2houghlines_8cpp-example.html</t>
+  </si>
+  <si>
+    <t>https://docs.opencv.org/3.4/d9/db0/tutorial_hough_lines.html</t>
+  </si>
+  <si>
+    <t>05.03.22</t>
+  </si>
+  <si>
+    <t>Implemented HoughLinesP, and tuned its parameters using trackbars. This may require further tuning to ensure detected lines are correct. Attempted to apply GaussianBlur to original source image before Canny edge detection in an attempt to filter any noise out as well as try and reduce the amount of false/not-useful edge detections (i.e. roadsigns). The GaussianBlur requires more investigation, as it messed with the previously tuned output of the Canny edge detector and the HoughLinesP.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yx5zpu6nk8&amp;t=452s</t>
+  </si>
+  <si>
+    <t>https://www.opencv-srf.com/2018/03/gaussian-blur.html</t>
   </si>
 </sst>
 </file>
@@ -94,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,7 +145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,24 +346,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -329,6 +368,42 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,31 +412,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B183F4-229D-4C2C-9E01-759BC4124B28}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,10 +750,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -670,428 +763,588 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="A15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K21" s="9"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K22" s="9"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K23" s="9"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K24" s="9"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K25" s="9"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K26" s="9"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K27" s="9"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:J14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B15:J20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K4:T4"/>
     <mergeCell ref="K18:T18"/>
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="B2:J6"/>
@@ -1108,33 +1361,25 @@
     <mergeCell ref="K9:T9"/>
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="K11:T11"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{19A7615E-8300-46B2-AAEC-D0268EB71DB2}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{43F43636-F89A-4E95-BE87-040CDDD2D65E}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{C9A44943-6DE8-495D-9007-605244B228A0}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{02780402-44D2-43A7-87C5-94590085915C}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{156A2A2C-3846-4C91-A487-06C4E2B37C2E}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{C2D4D43F-70DD-4A83-B8A0-E56266B29CF5}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{A8EADE43-064D-4E70-9098-70CBAF21CEF9}"/>
+    <hyperlink ref="K12" r:id="rId8" xr:uid="{1A6088AB-BA6B-4BC7-8410-7CD4976D892D}"/>
+    <hyperlink ref="K13" r:id="rId9" xr:uid="{9DED0F73-4FF7-4555-B44E-313B934C3B7D}"/>
+    <hyperlink ref="K15" r:id="rId10" xr:uid="{E5B615F0-C441-4AE7-8F91-03442ECD3350}"/>
+    <hyperlink ref="K16" r:id="rId11" xr:uid="{6985AB7D-51D0-461F-BB9D-C5D7D495D4DC}"/>
+    <hyperlink ref="K17" r:id="rId12" xr:uid="{C519EF39-B655-4313-8D9E-682EB5BC0379}"/>
+    <hyperlink ref="K18" r:id="rId13" xr:uid="{46E3A300-A210-446A-B07B-58E20C5AFF60}"/>
+    <hyperlink ref="K19" r:id="rId14" xr:uid="{B62408C5-C590-4715-93E1-053B63DD97C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/project_diary.xlsx
+++ b/project_diary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4e6e8a058fd5eea/Documents/GitHub/jow102_mmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2977E2FD-5622-4F75-AAF7-2CEDBC2A6819}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281104B0-DA8E-4BC7-8563-59808172432D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>https://www.opencv-srf.com/2018/03/gaussian-blur.html</t>
+  </si>
+  <si>
+    <t>After some investigation I removed GaussianBlur as it was not improving the result of the edge detection but was instead impairing it. Decided to crop the top off of the image before doing any processing as being able to see the sky and upcoming roadsigns was causing unwanted edge and hough line detections. The processed image is now only the lower half of the original and provides a much more accurate tracking of the lines. The removal of the GaussianBlur also meant that I had to re-tune the HoughLineP values, moving the robot along the road and tuning it at specific spots (bus lane/stop, corner, straight) to be as good as possible. Finally I figured out a way too make use of the coordinates of the start and end of the Hough Lines, temporarily circling the start of the lines. From this I plan to use these pixel coordinates to calculate the distance between the left and right line, thus allowing me to find the centre of the lane and adjust the position of the robot accordingly. Essentially drawing an imaginary line through the middle of the lane for the robot to follow.</t>
   </si>
 </sst>
 </file>
@@ -346,10 +349,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -358,51 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,49 +415,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B183F4-229D-4C2C-9E01-759BC4124B28}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,45 +750,45 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="24" t="s">
         <v>3</v>
       </c>
@@ -806,545 +803,722 @@
       <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="40"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="40"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="40"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K21" s="9"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K22" s="9"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K23" s="9"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K24" s="9"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K25" s="9"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K26" s="9"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="K27" s="9"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:J14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B15:J20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B7:J8"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="K4:T4"/>
+  <mergeCells count="43">
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="B21:J32"/>
     <mergeCell ref="K18:T18"/>
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="B2:J6"/>
@@ -1361,6 +1535,26 @@
     <mergeCell ref="K9:T9"/>
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="K11:T11"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:J14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B15:J20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1378,8 +1572,11 @@
     <hyperlink ref="K17" r:id="rId12" xr:uid="{C519EF39-B655-4313-8D9E-682EB5BC0379}"/>
     <hyperlink ref="K18" r:id="rId13" xr:uid="{46E3A300-A210-446A-B07B-58E20C5AFF60}"/>
     <hyperlink ref="K19" r:id="rId14" xr:uid="{B62408C5-C590-4715-93E1-053B63DD97C6}"/>
+    <hyperlink ref="K21" r:id="rId15" xr:uid="{B77D28E7-AD44-4C3E-A86E-265F9900AE56}"/>
+    <hyperlink ref="K22" r:id="rId16" xr:uid="{70B7F176-B585-482B-803E-C541D6C0AEB4}"/>
+    <hyperlink ref="K23" r:id="rId17" xr:uid="{62FAE590-4A6E-4F74-B43D-56235825D26A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/project_diary.xlsx
+++ b/project_diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4e6e8a058fd5eea/Documents/GitHub/jow102_mmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281104B0-DA8E-4BC7-8563-59808172432D}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_2C44BDEC2040C98AC652E46DBCB2E59E1998AE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222DCADA-0987-444D-85E8-DC0779372AB8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>After some investigation I removed GaussianBlur as it was not improving the result of the edge detection but was instead impairing it. Decided to crop the top off of the image before doing any processing as being able to see the sky and upcoming roadsigns was causing unwanted edge and hough line detections. The processed image is now only the lower half of the original and provides a much more accurate tracking of the lines. The removal of the GaussianBlur also meant that I had to re-tune the HoughLineP values, moving the robot along the road and tuning it at specific spots (bus lane/stop, corner, straight) to be as good as possible. Finally I figured out a way too make use of the coordinates of the start and end of the Hough Lines, temporarily circling the start of the lines. From this I plan to use these pixel coordinates to calculate the distance between the left and right line, thus allowing me to find the centre of the lane and adjust the position of the robot accordingly. Essentially drawing an imaginary line through the middle of the lane for the robot to follow.</t>
+  </si>
+  <si>
+    <t>06.03.22</t>
+  </si>
+  <si>
+    <t>Started work on the path planning part of the project. Currently investigating using the coordinates of the start and end of the generated HoughLinesP from each of the lines on the road to calculate the centre of the lane. I have implemented an algorithm to detirmine the best Hough lines to use, and then to calculate the centre of the lane from those lines. However early testing seems to suggest this will not be accurate enough on its own and will require further development as it struggles with sharp corners and the bus lanes included in the world model. This method seems promising and given time I believe I can make a reliable lane detector.</t>
   </si>
 </sst>
 </file>
@@ -349,55 +355,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -415,45 +442,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B183F4-229D-4C2C-9E01-759BC4124B28}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,775 +771,975 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="30"/>
     </row>
     <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="24" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="27" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="27" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="33" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="36" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="27" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="27" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="27" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="27" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="33" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="28" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="28" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="30"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="28" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="30"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="28" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="30"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="30"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="24"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="27" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="27" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="17"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="17"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="17"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="17"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="17"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="17"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="17"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="17"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="32"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="43"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="45"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="43"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="45"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="45"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="43"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="45"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="43"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="45"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="43"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="45"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="46"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="B21:J32"/>
+  <mergeCells count="53">
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="B33:J40"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:J14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B15:J20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K4:T4"/>
     <mergeCell ref="K18:T18"/>
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="B2:J6"/>
@@ -1535,26 +1756,16 @@
     <mergeCell ref="K9:T9"/>
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="K11:T11"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:J14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B15:J20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="B21:J32"/>
     <mergeCell ref="K25:T25"/>
     <mergeCell ref="K26:T26"/>
     <mergeCell ref="K27:T27"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
